--- a/Output_Data/output_Data_00000019.xlsx
+++ b/Output_Data/output_Data_00000019.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adithya\Documents\UiPath\Task\Output_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA536AFC-5709-46C6-BE23-5A461659C129}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC40DFC2-2051-4CC1-A3FB-82EE64A5AA7F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7900" yWindow="5750" windowWidth="6410" windowHeight="3270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8240" yWindow="6090" windowWidth="6410" windowHeight="3270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="40">
   <si>
     <t>INVOICE</t>
   </si>
@@ -72,13 +72,19 @@
     <t>(Company Name)</t>
   </si>
   <si>
+    <t>(Department Name)</t>
+  </si>
+  <si>
+    <t>102-311: DUBAI GOVERNMENT - MARINE GROUP</t>
+  </si>
+  <si>
     <t>1-2019-19262</t>
   </si>
   <si>
     <t>2012-TOYOTA-HIACE</t>
   </si>
   <si>
-    <t>A22295</t>
+    <t>A60576</t>
   </si>
   <si>
     <t>495-0 N/A; LOCTITE-495 - INSTANT ADHESIVE - 20 G. PC 55905-26040-0</t>
@@ -296,7 +302,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -312,7 +318,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -600,10 +607,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:H47"/>
+  <dimension ref="B1:H48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -620,12 +627,12 @@
     <row r="1" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:8" ht="21" x14ac:dyDescent="0.5">
       <c r="B2" s="5"/>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
       <c r="G2" s="6"/>
       <c r="H2" s="1"/>
     </row>
@@ -635,13 +642,13 @@
         <v>14</v>
       </c>
       <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="13">
+      <c r="F3" s="14">
         <v>43716</v>
       </c>
+      <c r="G3" s="8"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B4" s="7"/>
@@ -667,7 +674,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -675,11 +682,11 @@
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B7" s="7"/>
-      <c r="C7" s="2" t="s">
-        <v>2</v>
+      <c r="C7" s="13" t="s">
+        <v>15</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -688,10 +695,10 @@
     <row r="8" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B8" s="7"/>
       <c r="C8" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -699,8 +706,12 @@
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B9" s="7"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
+      <c r="C9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="8"/>
@@ -715,9 +726,7 @@
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B11" s="7"/>
-      <c r="C11" s="9" t="s">
-        <v>11</v>
-      </c>
+      <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -725,42 +734,36 @@
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B12" s="7"/>
-      <c r="C12" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="C12" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
       <c r="G12" s="8"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B13" s="7"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
+      <c r="C13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="G13" s="8"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B14" s="7"/>
-      <c r="C14" s="4">
-        <v>1</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="4">
-        <v>25.85</v>
-      </c>
-      <c r="F14" s="4">
-        <v>25.85</v>
-      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
       <c r="G14" s="8"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.35">
@@ -769,13 +772,13 @@
         <v>1</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E15" s="4">
-        <v>16.170000000000002</v>
+        <v>25.85</v>
       </c>
       <c r="F15" s="4">
-        <v>16.170000000000002</v>
+        <v>25.85</v>
       </c>
       <c r="G15" s="8"/>
     </row>
@@ -785,13 +788,13 @@
         <v>1</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E16" s="4">
-        <v>250.22</v>
+        <v>16.170000000000002</v>
       </c>
       <c r="F16" s="4">
-        <v>250.22</v>
+        <v>16.170000000000002</v>
       </c>
       <c r="G16" s="8"/>
     </row>
@@ -801,13 +804,13 @@
         <v>1</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E17" s="4">
-        <v>134.72999999999999</v>
+        <v>250.22</v>
       </c>
       <c r="F17" s="4">
-        <v>134.72999999999999</v>
+        <v>250.22</v>
       </c>
       <c r="G17" s="8"/>
     </row>
@@ -817,13 +820,13 @@
         <v>1</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E18" s="4">
-        <v>8</v>
+        <v>134.72999999999999</v>
       </c>
       <c r="F18" s="4">
-        <v>8</v>
+        <v>134.72999999999999</v>
       </c>
       <c r="G18" s="8"/>
     </row>
@@ -833,45 +836,45 @@
         <v>1</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E19" s="4">
-        <v>117.38</v>
+        <v>8</v>
       </c>
       <c r="F19" s="4">
-        <v>117.38</v>
+        <v>8</v>
       </c>
       <c r="G19" s="8"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B20" s="7"/>
       <c r="C20" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E20" s="4">
-        <v>300.79000000000002</v>
+        <v>117.38</v>
       </c>
       <c r="F20" s="4">
-        <v>601.59</v>
+        <v>117.38</v>
       </c>
       <c r="G20" s="8"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B21" s="7"/>
       <c r="C21" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E21" s="4">
-        <v>25.85</v>
+        <v>300.79000000000002</v>
       </c>
       <c r="F21" s="4">
-        <v>25.85</v>
+        <v>601.59</v>
       </c>
       <c r="G21" s="8"/>
     </row>
@@ -881,13 +884,13 @@
         <v>1</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E22" s="4">
-        <v>18</v>
+        <v>25.85</v>
       </c>
       <c r="F22" s="4">
-        <v>18</v>
+        <v>25.85</v>
       </c>
       <c r="G22" s="8"/>
     </row>
@@ -897,13 +900,13 @@
         <v>1</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E23" s="4">
-        <v>9.2899999999999991</v>
+        <v>18</v>
       </c>
       <c r="F23" s="4">
-        <v>9.2899999999999991</v>
+        <v>18</v>
       </c>
       <c r="G23" s="8"/>
     </row>
@@ -913,13 +916,13 @@
         <v>1</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E24" s="4">
-        <v>94</v>
+        <v>9.2899999999999991</v>
       </c>
       <c r="F24" s="4">
-        <v>94</v>
+        <v>9.2899999999999991</v>
       </c>
       <c r="G24" s="8"/>
     </row>
@@ -929,13 +932,13 @@
         <v>1</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E25" s="4">
-        <v>94.15</v>
+        <v>94</v>
       </c>
       <c r="F25" s="4">
-        <v>94.15</v>
+        <v>94</v>
       </c>
       <c r="G25" s="8"/>
     </row>
@@ -945,22 +948,30 @@
         <v>1</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E26" s="4">
-        <v>335</v>
+        <v>94.15</v>
       </c>
       <c r="F26" s="4">
-        <v>335</v>
+        <v>94.15</v>
       </c>
       <c r="G26" s="8"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B27" s="7"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
+      <c r="C27" s="4">
+        <v>1</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E27" s="4">
+        <v>335</v>
+      </c>
+      <c r="F27" s="4">
+        <v>335</v>
+      </c>
       <c r="G27" s="8"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.35">
@@ -973,17 +984,15 @@
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B29" s="7"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
       <c r="G29" s="8"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B30" s="7"/>
-      <c r="C30" s="9" t="s">
-        <v>10</v>
-      </c>
+      <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
@@ -991,42 +1000,36 @@
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B31" s="7"/>
-      <c r="C31" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="C31" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
       <c r="G31" s="8"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B32" s="7"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
+      <c r="C32" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="G32" s="8"/>
     </row>
-    <row r="33" spans="2:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B33" s="7"/>
-      <c r="C33" s="4">
-        <v>1</v>
-      </c>
-      <c r="D33" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="E33" s="4">
-        <v>150</v>
-      </c>
-      <c r="F33" s="4">
-        <v>150</v>
-      </c>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
       <c r="G33" s="8"/>
     </row>
     <row r="34" spans="2:7" ht="29" x14ac:dyDescent="0.35">
@@ -1034,8 +1037,8 @@
       <c r="C34" s="4">
         <v>1</v>
       </c>
-      <c r="D34" s="14" t="s">
-        <v>31</v>
+      <c r="D34" s="15" t="s">
+        <v>33</v>
       </c>
       <c r="E34" s="4">
         <v>150</v>
@@ -1048,57 +1051,65 @@
     <row r="35" spans="2:7" ht="29" x14ac:dyDescent="0.35">
       <c r="B35" s="7"/>
       <c r="C35" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="D35" s="14" t="s">
-        <v>31</v>
+        <v>1</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>33</v>
       </c>
       <c r="E35" s="4">
         <v>150</v>
       </c>
       <c r="F35" s="4">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="G35" s="8"/>
     </row>
     <row r="36" spans="2:7" ht="29" x14ac:dyDescent="0.35">
       <c r="B36" s="7"/>
       <c r="C36" s="4">
-        <v>1</v>
-      </c>
-      <c r="D36" s="14" t="s">
-        <v>31</v>
+        <v>0.5</v>
+      </c>
+      <c r="D36" s="15" t="s">
+        <v>33</v>
       </c>
       <c r="E36" s="4">
         <v>150</v>
       </c>
       <c r="F36" s="4">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="G36" s="8"/>
     </row>
     <row r="37" spans="2:7" ht="29" x14ac:dyDescent="0.35">
       <c r="B37" s="7"/>
       <c r="C37" s="4">
+        <v>1</v>
+      </c>
+      <c r="D37" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E37" s="4">
+        <v>150</v>
+      </c>
+      <c r="F37" s="4">
+        <v>150</v>
+      </c>
+      <c r="G37" s="8"/>
+    </row>
+    <row r="38" spans="2:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="B38" s="7"/>
+      <c r="C38" s="4">
         <v>0.25</v>
       </c>
-      <c r="D37" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="E37" s="4">
+      <c r="D38" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E38" s="4">
         <v>150.04</v>
       </c>
-      <c r="F37" s="4">
+      <c r="F38" s="4">
         <v>37.51</v>
       </c>
-      <c r="G37" s="8"/>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B38" s="7"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
       <c r="G38" s="8"/>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.35">
@@ -1111,22 +1122,18 @@
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B40" s="7"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
       <c r="G40" s="8"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B41" s="7"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F41" s="16">
-        <v>1730.22</v>
-      </c>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
       <c r="G41" s="8"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.35">
@@ -1134,10 +1141,10 @@
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F42" s="2">
-        <v>562.51</v>
+        <v>34</v>
+      </c>
+      <c r="F42" s="17">
+        <v>1730.22</v>
       </c>
       <c r="G42" s="8"/>
     </row>
@@ -1146,10 +1153,10 @@
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F43" s="2">
-        <v>0</v>
+        <v>562.51</v>
       </c>
       <c r="G43" s="8"/>
     </row>
@@ -1158,10 +1165,10 @@
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F44" s="16">
-        <v>2292.7199999999998</v>
+        <v>36</v>
+      </c>
+      <c r="F44" s="2">
+        <v>0</v>
       </c>
       <c r="G44" s="8"/>
     </row>
@@ -1170,10 +1177,10 @@
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F45" s="2">
-        <v>114.64</v>
+        <v>37</v>
+      </c>
+      <c r="F45" s="17">
+        <v>2292.7199999999998</v>
       </c>
       <c r="G45" s="8"/>
     </row>
@@ -1182,20 +1189,32 @@
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F46" s="16">
+        <v>38</v>
+      </c>
+      <c r="F46" s="2">
+        <v>114.64</v>
+      </c>
+      <c r="G46" s="8"/>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B47" s="7"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F47" s="17">
         <v>2407.36</v>
       </c>
-      <c r="G46" s="8"/>
-    </row>
-    <row r="47" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B47" s="10"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="11"/>
-      <c r="G47" s="12"/>
+      <c r="G47" s="8"/>
+    </row>
+    <row r="48" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B48" s="10"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
